--- a/content/post/datasets/Aquaculture_2019.1.0/DSD_FI_AQUACULTURE.xlsx
+++ b/content/post/datasets/Aquaculture_2019.1.0/DSD_FI_AQUACULTURE.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\USR\Manuals\2016\FIPS\SDMX\DSD\"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>Dimension</t>
   </si>
@@ -174,12 +174,15 @@
   </si>
   <si>
     <t>CL_FI_WATERAREA_GROUPS</t>
+  </si>
+  <si>
+    <t>SYMBOL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -585,7 +588,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,7 +773,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>40</v>
@@ -804,7 +807,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>40</v>
